--- a/assets/files/downloads/grants/Grants-Management-Federal-Business-Lifecycle.xlsx
+++ b/assets/files/downloads/grants/Grants-Management-Federal-Business-Lifecycle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgompert\Desktop\Grants Management\Final deliverables\20181106 deliverables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\courtneyhanderson\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E297EF58-22C1-45B5-8D39-DD2975079669}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF4AD56C-176A-4C1D-860B-4C3DAE17FB49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15072" windowHeight="7836" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'GRM Service Activities'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'GRM Service Functions'!$1:$1</definedName>
     <definedName name="ServiceActivities">'GRM Service Activities'!$B$2:$C$14</definedName>
-    <definedName name="ServiceAreas">'Service Areas'!$A$2:$B$14</definedName>
+    <definedName name="ServiceAreas">'Service Areas'!#REF!</definedName>
     <definedName name="ServiceFunctions">'GRM Service Functions'!$A$3:$C$5</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
   <si>
     <t>Grants Management</t>
   </si>
@@ -47,57 +47,21 @@
     <t>Acquisition</t>
   </si>
   <si>
-    <t>Budget Formulation</t>
-  </si>
-  <si>
     <t>Financial Management</t>
   </si>
   <si>
     <t>ACQ</t>
   </si>
   <si>
-    <t>BFM</t>
-  </si>
-  <si>
     <t>FFM</t>
   </si>
   <si>
     <t>GRM</t>
   </si>
   <si>
-    <t>ITS</t>
-  </si>
-  <si>
-    <t>LNM</t>
-  </si>
-  <si>
-    <t>HRM</t>
-  </si>
-  <si>
-    <t>Loans Management</t>
-  </si>
-  <si>
-    <t>Information Technology Services</t>
-  </si>
-  <si>
-    <t>INS</t>
-  </si>
-  <si>
-    <t>Printing and Publishing Services</t>
-  </si>
-  <si>
-    <t>PPS</t>
-  </si>
-  <si>
-    <t>Property Management</t>
-  </si>
-  <si>
     <t>ServiceAreaName</t>
   </si>
   <si>
-    <t>Insurance Management</t>
-  </si>
-  <si>
     <t>ServiceAreaID</t>
   </si>
   <si>
@@ -126,30 +90,6 @@
   </si>
   <si>
     <t>GRM.030.020</t>
-  </si>
-  <si>
-    <t>Human Resources Management</t>
-  </si>
-  <si>
-    <t>PRM</t>
-  </si>
-  <si>
-    <t>TRF</t>
-  </si>
-  <si>
-    <t>Sales Order and Fulfillment Management</t>
-  </si>
-  <si>
-    <t>SFM</t>
-  </si>
-  <si>
-    <t>Mail Operations Management</t>
-  </si>
-  <si>
-    <t>MOM</t>
-  </si>
-  <si>
-    <t>Travel, Relocation, and Fleet Management</t>
   </si>
   <si>
     <t>GRM.040</t>
@@ -606,12 +546,48 @@
   <si>
     <t>Determine and document cognizant agency for indirect (F&amp;A) cost rate; Receive, evaluate, and document grant recipient submission of indirect (F&amp;A) cost rate proposal and cost allocation plan; Determine and document grant recipient provisional or final indirect (F&amp;A) cost rate; Develop and document cost allocation plan or indirect (F&amp;A) cost rate for grant recipients who fail to submit plan or rate proposal; Receive request for adjustment or deviation to negotiated indirect cost rates; Retrieve grant recipient risk information related to indirect costs; Evaluate request for adjustment or deviation to negotiated indirect cost rates; Receive, evaluate, and document requests for one-time extension for negotiated indirect cost rates</t>
   </si>
+  <si>
+    <t>CYB</t>
+  </si>
+  <si>
+    <t>Cybersecurity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERM </t>
+  </si>
+  <si>
+    <t>Electronic Records Management</t>
+  </si>
+  <si>
+    <t>FRM</t>
+  </si>
+  <si>
+    <t>Federal Regulation Management</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>Human Capital Management</t>
+  </si>
+  <si>
+    <t>RPM</t>
+  </si>
+  <si>
+    <t>Real Property Management</t>
+  </si>
+  <si>
+    <t>TRT</t>
+  </si>
+  <si>
+    <t>Travel and Expense Management</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,6 +670,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -742,7 +729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -850,6 +837,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1170,14 +1161,14 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="21"/>
     </row>
-    <row r="7" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
@@ -1188,9 +1179,9 @@
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
     </row>
-    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="35" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -1201,7 +1192,7 @@
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.5">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -1227,24 +1218,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="72" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1263,140 +1254,105 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.08984375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B5" s="40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="40" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>36</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState ref="A2:B14">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B14">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:B14">
-    <sortCondition ref="A2"/>
-  </sortState>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -1417,94 +1373,94 @@
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="55.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="17.453125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="55.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C5" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState ref="A2:C64">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C64">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -1526,278 +1482,278 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.21875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="123.5546875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="20.77734375" style="4"/>
+    <col min="1" max="1" width="16.1796875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="123.54296875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="20.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="195" customHeight="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="195" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="82.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="37"/>
       <c r="B3" s="14" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="73.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="38" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="152.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="38"/>
       <c r="B5" s="14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="116.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="38"/>
       <c r="B7" s="14" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="118.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="177" customHeight="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="177" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="38"/>
       <c r="B9" s="14" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="267" customHeight="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="267" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38"/>
       <c r="B10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="268.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" ht="268.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="38"/>
       <c r="B11" s="14" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="171" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="171" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="38"/>
       <c r="B12" s="14" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="129.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="76.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="38"/>
       <c r="B14" s="17" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="32" customFormat="1" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="32" customFormat="1" ht="105.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="345" customHeight="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="345" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="37"/>
       <c r="B16" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>112</v>
-      </c>
       <c r="E16" s="20" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D16" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
-  <sortState ref="B48:G129">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B48:G129">
     <sortCondition ref="B48:B129"/>
   </sortState>
   <mergeCells count="6">
@@ -1824,6 +1780,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MITRE_x0020_Sensitivity xmlns="http://schemas.microsoft.com/sharepoint/v3">Internal MITRE Information</MITRE_x0020_Sensitivity>
+    <_Contributor xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Release_x0020_Statement xmlns="http://schemas.microsoft.com/sharepoint/v3">For Internal MITRE Use</Release_x0020_Statement>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
   <xsnLocation/>
@@ -1833,17 +1799,16 @@
 </customXsn>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MITRE_x0020_Sensitivity xmlns="http://schemas.microsoft.com/sharepoint/v3">Internal MITRE Information</MITRE_x0020_Sensitivity>
-    <_Contributor xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Release_x0020_Statement xmlns="http://schemas.microsoft.com/sharepoint/v3">For Internal MITRE Use</Release_x0020_Statement>
-  </documentManagement>
-</p:properties>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="MITRE Work" ma:contentTypeID="0x010100823A99C636F7423283FB0D200866C61300B711152D819CB74D86FEB7F4D2357708" ma:contentTypeVersion="1" ma:contentTypeDescription="Materials and documents that contain MITRE authored content and other content directly attributable to MITRE and its work" ma:contentTypeScope="" ma:versionID="c80e9fd8769d4ef7174a368d64e509af">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e207f629e9ef5d09050449f693559770" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2007,24 +1972,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10FAFA58-E790-42BD-A4C3-A064DE234046}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{416C18A8-57B0-4535-A048-31180036FEE7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2041,7 +1989,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10FAFA58-E790-42BD-A4C3-A064DE234046}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{314A49FD-DD5B-4F9A-B71B-D7DB8778B13B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E91B60A-A9E5-4E76-85D5-EA48BD484542}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2058,12 +2022,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{314A49FD-DD5B-4F9A-B71B-D7DB8778B13B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/assets/files/downloads/grants/Grants-Management-Federal-Business-Lifecycle.xlsx
+++ b/assets/files/downloads/grants/Grants-Management-Federal-Business-Lifecycle.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{F1947E62-A090-47B1-A249-893AD3245EB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="15525" windowWidth="14820" xWindow="-14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="30"/>
+    <workbookView activeTab="0" windowHeight="15525" windowWidth="14820" xWindow="-14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="30"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="5" r:id="rId1"/>
@@ -566,7 +566,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" count="2" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
@@ -576,6 +576,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -690,27 +691,49 @@
       </diagonal>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal style="none">
         <color rgb="FF000000"/>
       </diagonal>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal style="none">
         <color rgb="FF000000"/>
       </diagonal>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="none">
         <color rgb="FF000000"/>
       </bottom>
@@ -719,8 +742,12 @@
       </diagonal>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="none">
         <color rgb="FF000000"/>
       </top>
@@ -732,12 +759,18 @@
       </diagonal>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="none">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal style="none">
         <color rgb="FF000000"/>
       </diagonal>
@@ -747,7 +780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -883,6 +916,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1208,7 +1244,7 @@
   <sheetPr codeName="Sheet1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -1273,8 +1309,8 @@
       <c r="C5" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>6</v>
+      <c r="D5" s="49">
+        <v>44369</v>
       </c>
     </row>
     <row ht="28.8" r="6" spans="1:9" x14ac:dyDescent="0.3">
